--- a/dsadsa.xlsx
+++ b/dsadsa.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="445">
   <si>
     <t>가1</t>
   </si>
@@ -942,448 +942,415 @@
     <t>하22</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>종목명</t>
-  </si>
-  <si>
-    <t>현재가</t>
-  </si>
-  <si>
-    <t>전일비</t>
-  </si>
-  <si>
-    <t>등락률</t>
-  </si>
-  <si>
-    <t>액면가</t>
-  </si>
-  <si>
-    <t>영업이익</t>
-  </si>
-  <si>
-    <t>당기순이익</t>
-  </si>
-  <si>
-    <t>주당순이익</t>
-  </si>
-  <si>
-    <t>보통주배당금</t>
-  </si>
-  <si>
-    <t>영업이익증가율</t>
-  </si>
-  <si>
-    <t>토론</t>
-  </si>
-  <si>
-    <t>Unnamed: 12</t>
-  </si>
-  <si>
     <t>삼성전자</t>
   </si>
   <si>
-    <t>상승  2,600</t>
-  </si>
-  <si>
-    <t>+2.69%</t>
+    <t>상승  700</t>
+  </si>
+  <si>
+    <t>+0.68%</t>
   </si>
   <si>
     <t>SK하이닉스</t>
   </si>
   <si>
+    <t>상승  20,000</t>
+  </si>
+  <si>
+    <t>+3.82%</t>
+  </si>
+  <si>
+    <t>LG에너지솔루션</t>
+  </si>
+  <si>
+    <t>상승  2,500</t>
+  </si>
+  <si>
+    <t>+0.57%</t>
+  </si>
+  <si>
+    <t>삼성바이오로직스</t>
+  </si>
+  <si>
+    <t>하락  5,000</t>
+  </si>
+  <si>
+    <t>-0.30%</t>
+  </si>
+  <si>
+    <t>삼성전자우</t>
+  </si>
+  <si>
+    <t>하락  300</t>
+  </si>
+  <si>
+    <t>-0.39%</t>
+  </si>
+  <si>
+    <t>현대차</t>
+  </si>
+  <si>
+    <t>보합0</t>
+  </si>
+  <si>
+    <t>0.00%</t>
+  </si>
+  <si>
+    <t>두산에너빌리티</t>
+  </si>
+  <si>
+    <t>하락  100</t>
+  </si>
+  <si>
+    <t>-0.13%</t>
+  </si>
+  <si>
+    <t>HD현대중공업</t>
+  </si>
+  <si>
+    <t>KB금융</t>
+  </si>
+  <si>
     <t>하락  1,000</t>
   </si>
   <si>
+    <t>-0.80%</t>
+  </si>
+  <si>
+    <t>기아</t>
+  </si>
+  <si>
+    <t>상승  800</t>
+  </si>
+  <si>
+    <t>+0.71%</t>
+  </si>
+  <si>
+    <t>한화에어로스페이스</t>
+  </si>
+  <si>
+    <t>하락  8,000</t>
+  </si>
+  <si>
+    <t>-0.92%</t>
+  </si>
+  <si>
+    <t>셀트리온</t>
+  </si>
+  <si>
+    <t>하락  2,200</t>
+  </si>
+  <si>
+    <t>-1.17%</t>
+  </si>
+  <si>
+    <t>SK스퀘어</t>
+  </si>
+  <si>
+    <t>상승  10,000</t>
+  </si>
+  <si>
+    <t>+3.44%</t>
+  </si>
+  <si>
+    <t>NAVER</t>
+  </si>
+  <si>
+    <t>하락  12,000</t>
+  </si>
+  <si>
+    <t>-4.55%</t>
+  </si>
+  <si>
+    <t>삼성물산</t>
+  </si>
+  <si>
+    <t>하락  4,500</t>
+  </si>
+  <si>
+    <t>-1.91%</t>
+  </si>
+  <si>
+    <t>신한지주</t>
+  </si>
+  <si>
+    <t>하락  700</t>
+  </si>
+  <si>
+    <t>-0.89%</t>
+  </si>
+  <si>
+    <t>한화오션</t>
+  </si>
+  <si>
+    <t>하락  3,400</t>
+  </si>
+  <si>
+    <t>-2.99%</t>
+  </si>
+  <si>
+    <t>한국전력</t>
+  </si>
+  <si>
+    <t>하락  900</t>
+  </si>
+  <si>
+    <t>-1.70%</t>
+  </si>
+  <si>
+    <t>삼성생명</t>
+  </si>
+  <si>
+    <t>상승  1,800</t>
+  </si>
+  <si>
+    <t>+1.19%</t>
+  </si>
+  <si>
+    <t>HD한국조선해양</t>
+  </si>
+  <si>
+    <t>-0.23%</t>
+  </si>
+  <si>
+    <t>HD현대일렉트릭</t>
+  </si>
+  <si>
+    <t>상승  1,000</t>
+  </si>
+  <si>
+    <t>+0.13%</t>
+  </si>
+  <si>
+    <t>LG화학</t>
+  </si>
+  <si>
+    <t>하락  1,500</t>
+  </si>
+  <si>
+    <t>-0.38%</t>
+  </si>
+  <si>
+    <t>현대모비스</t>
+  </si>
+  <si>
+    <t>상승  6,500</t>
+  </si>
+  <si>
+    <t>+2.18%</t>
+  </si>
+  <si>
+    <t>카카오</t>
+  </si>
+  <si>
+    <t>하락  1,300</t>
+  </si>
+  <si>
+    <t>-2.13%</t>
+  </si>
+  <si>
+    <t>하나금융지주</t>
+  </si>
+  <si>
+    <t>상승  400</t>
+  </si>
+  <si>
+    <t>+0.43%</t>
+  </si>
+  <si>
+    <t>고려아연</t>
+  </si>
+  <si>
+    <t>상승  165,000</t>
+  </si>
+  <si>
+    <t>+14.22%</t>
+  </si>
+  <si>
+    <t>POSCO홀딩스</t>
+  </si>
+  <si>
+    <t>-1.42%</t>
+  </si>
+  <si>
+    <t>삼성SDI</t>
+  </si>
+  <si>
+    <t>-0.49%</t>
+  </si>
+  <si>
+    <t>삼성화재</t>
+  </si>
+  <si>
+    <t>+0.21%</t>
+  </si>
+  <si>
+    <t>삼성중공업</t>
+  </si>
+  <si>
+    <t>하락  50</t>
+  </si>
+  <si>
+    <t>-0.20%</t>
+  </si>
+  <si>
+    <t>SK이노베이션</t>
+  </si>
+  <si>
+    <t>하락  800</t>
+  </si>
+  <si>
+    <t>-0.68%</t>
+  </si>
+  <si>
+    <t>현대로템</t>
+  </si>
+  <si>
+    <t>하락  200</t>
+  </si>
+  <si>
+    <t>-0.11%</t>
+  </si>
+  <si>
+    <t>우리금융지주</t>
+  </si>
+  <si>
     <t>-0.19%</t>
   </si>
   <si>
-    <t>LG에너지솔루션</t>
-  </si>
-  <si>
-    <t>상승  1,500</t>
-  </si>
-  <si>
-    <t>+0.36%</t>
-  </si>
-  <si>
-    <t>삼성바이오로직스</t>
-  </si>
-  <si>
-    <t>하락  162,000</t>
-  </si>
-  <si>
-    <t>-9.06%</t>
-  </si>
-  <si>
-    <t>삼성전자우</t>
-  </si>
-  <si>
-    <t>상승  2,300</t>
-  </si>
-  <si>
-    <t>+3.17%</t>
-  </si>
-  <si>
-    <t>현대차</t>
-  </si>
-  <si>
-    <t>보합0</t>
-  </si>
-  <si>
-    <t>0.00%</t>
-  </si>
-  <si>
-    <t>HD현대중공업</t>
-  </si>
-  <si>
-    <t>하락  4,000</t>
-  </si>
-  <si>
-    <t>-0.72%</t>
-  </si>
-  <si>
-    <t>두산에너빌리티</t>
-  </si>
-  <si>
-    <t>상승  1,000</t>
-  </si>
-  <si>
-    <t>+1.38%</t>
-  </si>
-  <si>
-    <t>KB금융</t>
+    <t>삼성전기</t>
+  </si>
+  <si>
+    <t>하락  2,000</t>
+  </si>
+  <si>
+    <t>-0.78%</t>
+  </si>
+  <si>
+    <t>메리츠금융지주</t>
+  </si>
+  <si>
+    <t>-1.99%</t>
+  </si>
+  <si>
+    <t>효성중공업</t>
+  </si>
+  <si>
+    <t>상승  40,000</t>
+  </si>
+  <si>
+    <t>+2.04%</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>상승  3,000</t>
+  </si>
+  <si>
+    <t>+1.20%</t>
+  </si>
+  <si>
+    <t>포스코퓨처엠</t>
+  </si>
+  <si>
+    <t>상승  2,000</t>
+  </si>
+  <si>
+    <t>+0.98%</t>
+  </si>
+  <si>
+    <t>HMM</t>
+  </si>
+  <si>
+    <t>하락  10</t>
+  </si>
+  <si>
+    <t>-0.05%</t>
+  </si>
+  <si>
+    <t>KT&amp;G</t>
   </si>
   <si>
     <t>상승  1,400</t>
   </si>
   <si>
-    <t>+1.16%</t>
-  </si>
-  <si>
-    <t>한화에어로스페이스</t>
-  </si>
-  <si>
-    <t>상승  4,000</t>
-  </si>
-  <si>
-    <t>+0.47%</t>
-  </si>
-  <si>
-    <t>기아</t>
-  </si>
-  <si>
-    <t>상승  100</t>
-  </si>
-  <si>
-    <t>+0.09%</t>
-  </si>
-  <si>
-    <t>셀트리온</t>
-  </si>
-  <si>
-    <t>상승  400</t>
-  </si>
-  <si>
-    <t>+0.22%</t>
-  </si>
-  <si>
-    <t>NAVER</t>
-  </si>
-  <si>
-    <t>하락  8,000</t>
-  </si>
-  <si>
-    <t>-3.07%</t>
-  </si>
-  <si>
-    <t>삼성물산</t>
-  </si>
-  <si>
-    <t>상승  10,500</t>
-  </si>
-  <si>
-    <t>+4.82%</t>
-  </si>
-  <si>
-    <t>SK스퀘어</t>
-  </si>
-  <si>
-    <t>상승  14,500</t>
-  </si>
-  <si>
-    <t>+5.25%</t>
-  </si>
-  <si>
-    <t>신한지주</t>
-  </si>
-  <si>
-    <t>상승  1,200</t>
-  </si>
-  <si>
-    <t>+1.57%</t>
-  </si>
-  <si>
-    <t>한화오션</t>
-  </si>
-  <si>
-    <t>하락  5,800</t>
-  </si>
-  <si>
-    <t>-4.88%</t>
-  </si>
-  <si>
-    <t>한국전력</t>
+    <t>기업은행</t>
+  </si>
+  <si>
+    <t>하락  150</t>
+  </si>
+  <si>
+    <t>-0.73%</t>
+  </si>
+  <si>
+    <t>HD현대</t>
+  </si>
+  <si>
+    <t>하락  2,500</t>
+  </si>
+  <si>
+    <t>-1.23%</t>
+  </si>
+  <si>
+    <t>두산</t>
+  </si>
+  <si>
+    <t>상승  36,000</t>
+  </si>
+  <si>
+    <t>+4.22%</t>
+  </si>
+  <si>
+    <t>LS ELECTRIC</t>
+  </si>
+  <si>
+    <t>상승  18,500</t>
+  </si>
+  <si>
+    <t>+4.12%</t>
+  </si>
+  <si>
+    <t>LG전자</t>
+  </si>
+  <si>
+    <t>하락  1,100</t>
+  </si>
+  <si>
+    <t>-1.27%</t>
+  </si>
+  <si>
+    <t>삼성에스디에스</t>
+  </si>
+  <si>
+    <t>KT</t>
+  </si>
+  <si>
+    <t>상승  200</t>
+  </si>
+  <si>
+    <t>+0.40%</t>
+  </si>
+  <si>
+    <t>하이브</t>
+  </si>
+  <si>
+    <t>상승  12,500</t>
+  </si>
+  <si>
+    <t>+4.39%</t>
+  </si>
+  <si>
+    <t>미래에셋증권</t>
+  </si>
+  <si>
+    <t>-1.33%</t>
+  </si>
+  <si>
+    <t>현대글로비스</t>
   </si>
   <si>
     <t>상승  3,300</t>
-  </si>
-  <si>
-    <t>+6.85%</t>
-  </si>
-  <si>
-    <t>HD한국조선해양</t>
-  </si>
-  <si>
-    <t>하락  14,000</t>
-  </si>
-  <si>
-    <t>-3.23%</t>
-  </si>
-  <si>
-    <t>삼성생명</t>
-  </si>
-  <si>
-    <t>상승  1,900</t>
-  </si>
-  <si>
-    <t>+1.31%</t>
-  </si>
-  <si>
-    <t>HD현대일렉트릭</t>
-  </si>
-  <si>
-    <t>상승  30,000</t>
-  </si>
-  <si>
-    <t>+4.00%</t>
-  </si>
-  <si>
-    <t>현대모비스</t>
-  </si>
-  <si>
-    <t>카카오</t>
-  </si>
-  <si>
-    <t>하락  800</t>
-  </si>
-  <si>
-    <t>-1.36%</t>
-  </si>
-  <si>
-    <t>LG화학</t>
-  </si>
-  <si>
-    <t>상승  4,500</t>
-  </si>
-  <si>
-    <t>+1.26%</t>
-  </si>
-  <si>
-    <t>하나금융지주</t>
-  </si>
-  <si>
-    <t>상승  1,300</t>
-  </si>
-  <si>
-    <t>+1.45%</t>
-  </si>
-  <si>
-    <t>POSCO홀딩스</t>
-  </si>
-  <si>
-    <t>하락  1,500</t>
-  </si>
-  <si>
-    <t>-0.50%</t>
-  </si>
-  <si>
-    <t>삼성SDI</t>
-  </si>
-  <si>
-    <t>상승  3,500</t>
-  </si>
-  <si>
-    <t>+1.25%</t>
-  </si>
-  <si>
-    <t>고려아연</t>
-  </si>
-  <si>
-    <t>상승  60,000</t>
-  </si>
-  <si>
-    <t>+5.57%</t>
-  </si>
-  <si>
-    <t>삼성중공업</t>
-  </si>
-  <si>
-    <t>하락  250</t>
-  </si>
-  <si>
-    <t>-1.00%</t>
-  </si>
-  <si>
-    <t>삼성화재</t>
-  </si>
-  <si>
-    <t>현대로템</t>
-  </si>
-  <si>
-    <t>상승  2,200</t>
-  </si>
-  <si>
-    <t>우리금융지주</t>
-  </si>
-  <si>
-    <t>하락  50</t>
-  </si>
-  <si>
-    <t>메리츠금융지주</t>
-  </si>
-  <si>
-    <t>하락  200</t>
-  </si>
-  <si>
-    <t>SK이노베이션</t>
-  </si>
-  <si>
-    <t>하락  300</t>
-  </si>
-  <si>
-    <t>-0.27%</t>
-  </si>
-  <si>
-    <t>효성중공업</t>
-  </si>
-  <si>
-    <t>상승  37,000</t>
-  </si>
-  <si>
-    <t>+1.94%</t>
-  </si>
-  <si>
-    <t>SK</t>
-  </si>
-  <si>
-    <t>하락  500</t>
-  </si>
-  <si>
-    <t>-0.20%</t>
-  </si>
-  <si>
-    <t>삼성전기</t>
-  </si>
-  <si>
-    <t>상승  15,500</t>
-  </si>
-  <si>
-    <t>+6.86%</t>
-  </si>
-  <si>
-    <t>HMM</t>
-  </si>
-  <si>
-    <t>상승  50</t>
-  </si>
-  <si>
-    <t>+0.27%</t>
-  </si>
-  <si>
-    <t>포스코퓨처엠</t>
-  </si>
-  <si>
-    <t>상승  300</t>
-  </si>
-  <si>
-    <t>+0.16%</t>
-  </si>
-  <si>
-    <t>KT&amp;G</t>
-  </si>
-  <si>
-    <t>하락  6,300</t>
-  </si>
-  <si>
-    <t>-4.30%</t>
-  </si>
-  <si>
-    <t>기업은행</t>
-  </si>
-  <si>
-    <t>+0.25%</t>
-  </si>
-  <si>
-    <t>HD현대</t>
-  </si>
-  <si>
-    <t>상승  2,000</t>
-  </si>
-  <si>
-    <t>+1.00%</t>
-  </si>
-  <si>
-    <t>LG전자</t>
-  </si>
-  <si>
-    <t>+1.43%</t>
-  </si>
-  <si>
-    <t>두산</t>
-  </si>
-  <si>
-    <t>하락  24,000</t>
-  </si>
-  <si>
-    <t>-2.81%</t>
-  </si>
-  <si>
-    <t>LS ELECTRIC</t>
-  </si>
-  <si>
-    <t>+0.92%</t>
-  </si>
-  <si>
-    <t>삼성에스디에스</t>
-  </si>
-  <si>
-    <t>+0.60%</t>
-  </si>
-  <si>
-    <t>KT</t>
-  </si>
-  <si>
-    <t>LG</t>
-  </si>
-  <si>
-    <t>상승  700</t>
-  </si>
-  <si>
-    <t>+0.90%</t>
-  </si>
-  <si>
-    <t>크래프톤</t>
-  </si>
-  <si>
-    <t>현대글로비스</t>
-  </si>
-  <si>
-    <t>상승  1,600</t>
-  </si>
-  <si>
-    <t>+1.01%</t>
   </si>
 </sst>
 </file>
@@ -1730,7 +1697,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N112"/>
+  <dimension ref="A1:N111"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2704,80 +2671,80 @@
         <v>307</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="1" t="s">
+    <row r="35" spans="1:13">
+      <c r="A35" s="1">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C35" s="1">
+        <v>103500</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>320</v>
+      <c r="F35" s="1">
+        <v>100</v>
+      </c>
+      <c r="G35" s="1">
+        <v>16424489</v>
+      </c>
+      <c r="H35" s="1">
+        <v>104100</v>
+      </c>
+      <c r="I35" s="1">
+        <v>105500</v>
+      </c>
+      <c r="J35" s="1">
+        <v>102700</v>
+      </c>
+      <c r="K35" s="1">
+        <v>6126825</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="C36" s="1">
-        <v>99300</v>
+        <v>544000</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F36" s="1">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="G36" s="1">
-        <v>327260</v>
+        <v>3594963</v>
       </c>
       <c r="H36" s="1">
-        <v>344514</v>
+        <v>535000</v>
       </c>
       <c r="I36" s="1">
-        <v>4816</v>
+        <v>556000</v>
       </c>
       <c r="J36" s="1">
-        <v>1446</v>
+        <v>533000</v>
       </c>
       <c r="K36" s="1">
-        <v>398.34</v>
+        <v>3960333</v>
       </c>
       <c r="L36" s="1">
         <v>0</v>
@@ -2788,37 +2755,37 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="C37" s="1">
-        <v>519000</v>
+        <v>438000</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="F37" s="1">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="G37" s="1">
-        <v>234673</v>
+        <v>363930</v>
       </c>
       <c r="H37" s="1">
-        <v>197969</v>
+        <v>437000</v>
       </c>
       <c r="I37" s="1">
-        <v>49038</v>
+        <v>444500</v>
       </c>
       <c r="J37" s="1">
-        <v>2204</v>
+        <v>432500</v>
       </c>
       <c r="K37" s="1">
-        <v>403.58</v>
+        <v>1024920</v>
       </c>
       <c r="L37" s="1">
         <v>0</v>
@@ -2829,37 +2796,37 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="C38" s="1">
-        <v>413500</v>
+        <v>1646000</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="F38" s="1">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="G38" s="1">
-        <v>5754</v>
+        <v>62049</v>
       </c>
       <c r="H38" s="1">
-        <v>3386</v>
+        <v>1662000</v>
       </c>
       <c r="I38" s="1">
-        <v>-3742</v>
+        <v>1687000</v>
       </c>
       <c r="J38" s="1">
-        <v>0</v>
+        <v>1640000</v>
       </c>
       <c r="K38" s="1">
-        <v>-73.40000000000001</v>
+        <v>761949</v>
       </c>
       <c r="L38" s="1">
         <v>0</v>
@@ -2870,37 +2837,37 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="C39" s="1">
-        <v>1627000</v>
+        <v>77000</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="F39" s="1">
-        <v>2500</v>
+        <v>100</v>
       </c>
       <c r="G39" s="1">
-        <v>13201</v>
+        <v>1443626</v>
       </c>
       <c r="H39" s="1">
-        <v>10833</v>
+        <v>77900</v>
       </c>
       <c r="I39" s="1">
-        <v>22422</v>
+        <v>78800</v>
       </c>
       <c r="J39" s="1">
-        <v>0</v>
+        <v>77000</v>
       </c>
       <c r="K39" s="1">
-        <v>18.53</v>
+        <v>628300</v>
       </c>
       <c r="L39" s="1">
         <v>0</v>
@@ -2909,80 +2876,80 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="1">
-        <v>5</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="C40" s="1">
-        <v>74900</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="F40" s="1">
-        <v>100</v>
-      </c>
-      <c r="G40" s="1">
-        <v>0</v>
-      </c>
-      <c r="H40" s="1">
-        <v>0</v>
-      </c>
-      <c r="I40" s="1">
-        <v>4816</v>
-      </c>
-      <c r="J40" s="1">
-        <v>0</v>
-      </c>
-      <c r="K40" s="1">
-        <v>0</v>
-      </c>
-      <c r="L40" s="1">
-        <v>0</v>
-      </c>
-      <c r="M40" s="1">
+    <row r="43" spans="1:13">
+      <c r="A43" s="1">
+        <v>6</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C43" s="1">
+        <v>261500</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F43" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G43" s="1">
+        <v>289061</v>
+      </c>
+      <c r="H43" s="1">
+        <v>261500</v>
+      </c>
+      <c r="I43" s="1">
+        <v>262500</v>
+      </c>
+      <c r="J43" s="1">
+        <v>259500</v>
+      </c>
+      <c r="K43" s="1">
+        <v>535442</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0</v>
+      </c>
+      <c r="M43" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="C44" s="1">
-        <v>257500</v>
+        <v>77600</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="F44" s="1">
         <v>5000</v>
       </c>
       <c r="G44" s="1">
-        <v>142396</v>
+        <v>3201206</v>
       </c>
       <c r="H44" s="1">
-        <v>132299</v>
+        <v>79400</v>
       </c>
       <c r="I44" s="1">
-        <v>39785</v>
+        <v>79900</v>
       </c>
       <c r="J44" s="1">
-        <v>12000</v>
+        <v>77000</v>
       </c>
       <c r="K44" s="1">
-        <v>-5.87</v>
+        <v>497075</v>
       </c>
       <c r="L44" s="1">
         <v>0</v>
@@ -2993,37 +2960,37 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="C45" s="1">
-        <v>548000</v>
+        <v>554000</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="F45" s="1">
         <v>5000</v>
       </c>
       <c r="G45" s="1">
-        <v>7052</v>
+        <v>177537</v>
       </c>
       <c r="H45" s="1">
-        <v>6215</v>
+        <v>557000</v>
       </c>
       <c r="I45" s="1">
-        <v>14560</v>
+        <v>570000</v>
       </c>
       <c r="J45" s="1">
-        <v>2090</v>
+        <v>546000</v>
       </c>
       <c r="K45" s="1">
-        <v>294.77</v>
+        <v>491803</v>
       </c>
       <c r="L45" s="1">
         <v>0</v>
@@ -3034,37 +3001,37 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C46" s="1">
-        <v>73500</v>
+        <v>123700</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="F46" s="1">
         <v>5000</v>
       </c>
       <c r="G46" s="1">
-        <v>10176</v>
+        <v>541036</v>
       </c>
       <c r="H46" s="1">
-        <v>3947</v>
+        <v>123600</v>
       </c>
       <c r="I46" s="1">
-        <v>-159</v>
+        <v>125700</v>
       </c>
       <c r="J46" s="1">
-        <v>0</v>
+        <v>123600</v>
       </c>
       <c r="K46" s="1">
-        <v>-30.65</v>
+        <v>471869</v>
       </c>
       <c r="L46" s="1">
         <v>0</v>
@@ -3075,37 +3042,37 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="C47" s="1">
-        <v>121700</v>
+        <v>114000</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="F47" s="1">
         <v>5000</v>
       </c>
       <c r="G47" s="1">
-        <v>80453</v>
+        <v>477958</v>
       </c>
       <c r="H47" s="1">
-        <v>50286</v>
+        <v>113000</v>
       </c>
       <c r="I47" s="1">
-        <v>14598</v>
+        <v>114000</v>
       </c>
       <c r="J47" s="1">
-        <v>3174</v>
+        <v>112800</v>
       </c>
       <c r="K47" s="1">
-        <v>26</v>
+        <v>448920</v>
       </c>
       <c r="L47" s="1">
         <v>0</v>
@@ -3114,80 +3081,80 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
-      <c r="A48" s="1">
-        <v>10</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C48" s="1">
-        <v>859000</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="F48" s="1">
+    <row r="51" spans="1:13">
+      <c r="A51" s="1">
+        <v>11</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C51" s="1">
+        <v>863000</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F51" s="1">
         <v>5000</v>
       </c>
-      <c r="G48" s="1">
-        <v>17319</v>
-      </c>
-      <c r="H48" s="1">
-        <v>25399</v>
-      </c>
-      <c r="I48" s="1">
-        <v>54715</v>
-      </c>
-      <c r="J48" s="1">
-        <v>3443</v>
-      </c>
-      <c r="K48" s="1">
-        <v>191.41</v>
-      </c>
-      <c r="L48" s="1">
-        <v>0</v>
-      </c>
-      <c r="M48" s="1">
+      <c r="G51" s="1">
+        <v>198637</v>
+      </c>
+      <c r="H51" s="1">
+        <v>901000</v>
+      </c>
+      <c r="I51" s="1">
+        <v>902000</v>
+      </c>
+      <c r="J51" s="1">
+        <v>862000</v>
+      </c>
+      <c r="K51" s="1">
+        <v>444992</v>
+      </c>
+      <c r="L51" s="1">
+        <v>0</v>
+      </c>
+      <c r="M51" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="C52" s="1">
-        <v>111200</v>
+        <v>185200</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="F52" s="1">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="G52" s="1">
-        <v>126671</v>
+        <v>379089</v>
       </c>
       <c r="H52" s="1">
-        <v>97750</v>
+        <v>188200</v>
       </c>
       <c r="I52" s="1">
-        <v>19704</v>
+        <v>188800</v>
       </c>
       <c r="J52" s="1">
-        <v>6500</v>
+        <v>185000</v>
       </c>
       <c r="K52" s="1">
-        <v>9.130000000000001</v>
+        <v>427740</v>
       </c>
       <c r="L52" s="1">
         <v>0</v>
@@ -3198,37 +3165,37 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="C53" s="1">
-        <v>182500</v>
+        <v>301000</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="F53" s="1">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G53" s="1">
-        <v>4920</v>
+        <v>464246</v>
       </c>
       <c r="H53" s="1">
-        <v>4189</v>
+        <v>298500</v>
       </c>
       <c r="I53" s="1">
-        <v>3168</v>
+        <v>306000</v>
       </c>
       <c r="J53" s="1">
-        <v>735</v>
+        <v>295500</v>
       </c>
       <c r="K53" s="1">
-        <v>-24.48</v>
+        <v>398948</v>
       </c>
       <c r="L53" s="1">
         <v>0</v>
@@ -3239,37 +3206,37 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="C54" s="1">
-        <v>253000</v>
+        <v>251500</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="F54" s="1">
         <v>100</v>
       </c>
       <c r="G54" s="1">
-        <v>19793</v>
+        <v>2028550</v>
       </c>
       <c r="H54" s="1">
-        <v>19320</v>
+        <v>259500</v>
       </c>
       <c r="I54" s="1">
-        <v>13842</v>
+        <v>261500</v>
       </c>
       <c r="J54" s="1">
-        <v>1130</v>
+        <v>250500</v>
       </c>
       <c r="K54" s="1">
-        <v>32.94</v>
+        <v>394484</v>
       </c>
       <c r="L54" s="1">
         <v>0</v>
@@ -3280,37 +3247,37 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="C55" s="1">
-        <v>228500</v>
+        <v>231500</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="F55" s="1">
         <v>100</v>
       </c>
       <c r="G55" s="1">
-        <v>29834</v>
+        <v>368085</v>
       </c>
       <c r="H55" s="1">
-        <v>27720</v>
+        <v>237000</v>
       </c>
       <c r="I55" s="1">
-        <v>12227</v>
+        <v>239000</v>
       </c>
       <c r="J55" s="1">
-        <v>2600</v>
+        <v>230500</v>
       </c>
       <c r="K55" s="1">
-        <v>3.95</v>
+        <v>393496</v>
       </c>
       <c r="L55" s="1">
         <v>0</v>
@@ -3319,80 +3286,80 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
-      <c r="A56" s="1">
-        <v>15</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C56" s="1">
-        <v>290500</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="F56" s="1">
-        <v>100</v>
-      </c>
-      <c r="G56" s="1">
-        <v>39126</v>
-      </c>
-      <c r="H56" s="1">
-        <v>36505</v>
-      </c>
-      <c r="I56" s="1">
-        <v>52740</v>
-      </c>
-      <c r="J56" s="1">
-        <v>0</v>
-      </c>
-      <c r="K56" s="1">
-        <v>267.23</v>
-      </c>
-      <c r="L56" s="1">
-        <v>0</v>
-      </c>
-      <c r="M56" s="1">
+    <row r="59" spans="1:13">
+      <c r="A59" s="1">
+        <v>16</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C59" s="1">
+        <v>78300</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="F59" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G59" s="1">
+        <v>646356</v>
+      </c>
+      <c r="H59" s="1">
+        <v>78400</v>
+      </c>
+      <c r="I59" s="1">
+        <v>79700</v>
+      </c>
+      <c r="J59" s="1">
+        <v>78000</v>
+      </c>
+      <c r="K59" s="1">
+        <v>380143</v>
+      </c>
+      <c r="L59" s="1">
+        <v>0</v>
+      </c>
+      <c r="M59" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="C60" s="1">
-        <v>77500</v>
+        <v>110500</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="F60" s="1">
         <v>5000</v>
       </c>
       <c r="G60" s="1">
-        <v>64587</v>
+        <v>1348372</v>
       </c>
       <c r="H60" s="1">
-        <v>45582</v>
+        <v>113500</v>
       </c>
       <c r="I60" s="1">
-        <v>9774</v>
+        <v>113600</v>
       </c>
       <c r="J60" s="1">
-        <v>2160</v>
+        <v>110000</v>
       </c>
       <c r="K60" s="1">
-        <v>5.87</v>
+        <v>338587</v>
       </c>
       <c r="L60" s="1">
         <v>0</v>
@@ -3403,37 +3370,37 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C61" s="1">
-        <v>113000</v>
+        <v>51900</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="F61" s="1">
         <v>5000</v>
       </c>
       <c r="G61" s="1">
-        <v>2379</v>
+        <v>3898132</v>
       </c>
       <c r="H61" s="1">
-        <v>5282</v>
+        <v>53100</v>
       </c>
       <c r="I61" s="1">
-        <v>3959</v>
+        <v>54100</v>
       </c>
       <c r="J61" s="1">
-        <v>0</v>
+        <v>51500</v>
       </c>
       <c r="K61" s="1">
-        <v>221.06</v>
+        <v>333179</v>
       </c>
       <c r="L61" s="1">
         <v>0</v>
@@ -3444,37 +3411,37 @@
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="C62" s="1">
-        <v>51500</v>
+        <v>153400</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="F62" s="1">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="G62" s="1">
-        <v>83647</v>
+        <v>147275</v>
       </c>
       <c r="H62" s="1">
-        <v>36220</v>
+        <v>151400</v>
       </c>
       <c r="I62" s="1">
-        <v>12830</v>
+        <v>154700</v>
       </c>
       <c r="J62" s="1">
-        <v>213</v>
+        <v>151400</v>
       </c>
       <c r="K62" s="1">
-        <v>284.18</v>
+        <v>306800</v>
       </c>
       <c r="L62" s="1">
         <v>0</v>
@@ -3485,37 +3452,37 @@
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="C63" s="1">
-        <v>420000</v>
+        <v>427000</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>376</v>
+        <v>331</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="F63" s="1">
         <v>5000</v>
       </c>
       <c r="G63" s="1">
-        <v>14341</v>
+        <v>104454</v>
       </c>
       <c r="H63" s="1">
-        <v>14546</v>
+        <v>427000</v>
       </c>
       <c r="I63" s="1">
-        <v>28618</v>
+        <v>435000</v>
       </c>
       <c r="J63" s="1">
-        <v>5100</v>
+        <v>423000</v>
       </c>
       <c r="K63" s="1">
-        <v>408.07</v>
+        <v>302201</v>
       </c>
       <c r="L63" s="1">
         <v>0</v>
@@ -3524,80 +3491,80 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
-      <c r="A64" s="1">
-        <v>20</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="C64" s="1">
-        <v>146700</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="F64" s="1">
-        <v>500</v>
-      </c>
-      <c r="G64" s="1">
-        <v>24998</v>
-      </c>
-      <c r="H64" s="1">
-        <v>22603</v>
-      </c>
-      <c r="I64" s="1">
-        <v>10662</v>
-      </c>
-      <c r="J64" s="1">
-        <v>4500</v>
-      </c>
-      <c r="K64" s="1">
-        <v>4.23</v>
-      </c>
-      <c r="L64" s="1">
-        <v>0</v>
-      </c>
-      <c r="M64" s="1">
+    <row r="67" spans="1:13">
+      <c r="A67" s="1">
+        <v>21</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C67" s="1">
+        <v>798000</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="F67" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G67" s="1">
+        <v>72971</v>
+      </c>
+      <c r="H67" s="1">
+        <v>810000</v>
+      </c>
+      <c r="I67" s="1">
+        <v>825000</v>
+      </c>
+      <c r="J67" s="1">
+        <v>797000</v>
+      </c>
+      <c r="K67" s="1">
+        <v>287656</v>
+      </c>
+      <c r="L67" s="1">
+        <v>0</v>
+      </c>
+      <c r="M67" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="C68" s="1">
-        <v>780000</v>
+        <v>395500</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="F68" s="1">
         <v>5000</v>
       </c>
       <c r="G68" s="1">
-        <v>6690</v>
+        <v>455950</v>
       </c>
       <c r="H68" s="1">
-        <v>4984</v>
+        <v>394500</v>
       </c>
       <c r="I68" s="1">
-        <v>17112</v>
+        <v>402500</v>
       </c>
       <c r="J68" s="1">
-        <v>5350</v>
+        <v>386000</v>
       </c>
       <c r="K68" s="1">
-        <v>112.23</v>
+        <v>279193</v>
       </c>
       <c r="L68" s="1">
         <v>0</v>
@@ -3608,37 +3575,37 @@
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="C69" s="1">
-        <v>293500</v>
+        <v>304500</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="F69" s="1">
         <v>5000</v>
       </c>
       <c r="G69" s="1">
-        <v>30735</v>
+        <v>229815</v>
       </c>
       <c r="H69" s="1">
-        <v>40602</v>
+        <v>297500</v>
       </c>
       <c r="I69" s="1">
-        <v>45048</v>
+        <v>307000</v>
       </c>
       <c r="J69" s="1">
-        <v>6000</v>
+        <v>297500</v>
       </c>
       <c r="K69" s="1">
-        <v>33.9</v>
+        <v>276281</v>
       </c>
       <c r="L69" s="1">
         <v>0</v>
@@ -3649,37 +3616,37 @@
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="C70" s="1">
-        <v>58000</v>
+        <v>59700</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="F70" s="1">
         <v>100</v>
       </c>
       <c r="G70" s="1">
-        <v>4602</v>
+        <v>1620028</v>
       </c>
       <c r="H70" s="1">
-        <v>-1619</v>
+        <v>60900</v>
       </c>
       <c r="I70" s="1">
-        <v>525</v>
+        <v>61200</v>
       </c>
       <c r="J70" s="1">
-        <v>68</v>
+        <v>59700</v>
       </c>
       <c r="K70" s="1">
-        <v>-0.14</v>
+        <v>264103</v>
       </c>
       <c r="L70" s="1">
         <v>0</v>
@@ -3690,37 +3657,37 @@
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="C71" s="1">
-        <v>363000</v>
+        <v>93300</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="F71" s="1">
         <v>5000</v>
       </c>
       <c r="G71" s="1">
-        <v>9168</v>
+        <v>431508</v>
       </c>
       <c r="H71" s="1">
-        <v>5150</v>
+        <v>92900</v>
       </c>
       <c r="I71" s="1">
-        <v>-18880</v>
+        <v>94900</v>
       </c>
       <c r="J71" s="1">
-        <v>1000</v>
+        <v>92800</v>
       </c>
       <c r="K71" s="1">
-        <v>-63.75</v>
+        <v>259678</v>
       </c>
       <c r="L71" s="1">
         <v>0</v>
@@ -3729,80 +3696,80 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
-      <c r="A72" s="1">
-        <v>25</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C72" s="1">
-        <v>90800</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="F72" s="1">
+    <row r="75" spans="1:13">
+      <c r="A75" s="1">
+        <v>26</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C75" s="1">
+        <v>1325000</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F75" s="1">
         <v>5000</v>
       </c>
-      <c r="G72" s="1">
-        <v>48552</v>
-      </c>
-      <c r="H72" s="1">
-        <v>37685</v>
-      </c>
-      <c r="I72" s="1">
-        <v>13804</v>
-      </c>
-      <c r="J72" s="1">
-        <v>3600</v>
-      </c>
-      <c r="K72" s="1">
-        <v>3.45</v>
-      </c>
-      <c r="L72" s="1">
-        <v>0</v>
-      </c>
-      <c r="M72" s="1">
+      <c r="G75" s="1">
+        <v>76263</v>
+      </c>
+      <c r="H75" s="1">
+        <v>1163000</v>
+      </c>
+      <c r="I75" s="1">
+        <v>1344000</v>
+      </c>
+      <c r="J75" s="1">
+        <v>1163000</v>
+      </c>
+      <c r="K75" s="1">
+        <v>256298</v>
+      </c>
+      <c r="L75" s="1">
+        <v>0</v>
+      </c>
+      <c r="M75" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="C76" s="1">
-        <v>301000</v>
+        <v>313000</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>395</v>
+        <v>349</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="F76" s="1">
         <v>5000</v>
       </c>
       <c r="G76" s="1">
-        <v>21736</v>
+        <v>188214</v>
       </c>
       <c r="H76" s="1">
-        <v>9476</v>
+        <v>315500</v>
       </c>
       <c r="I76" s="1">
-        <v>5560</v>
+        <v>318000</v>
       </c>
       <c r="J76" s="1">
-        <v>10000</v>
+        <v>311000</v>
       </c>
       <c r="K76" s="1">
-        <v>-38.45</v>
+        <v>253320</v>
       </c>
       <c r="L76" s="1">
         <v>0</v>
@@ -3813,37 +3780,37 @@
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="C77" s="1">
-        <v>284500</v>
+        <v>303000</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>398</v>
+        <v>369</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="F77" s="1">
         <v>5000</v>
       </c>
       <c r="G77" s="1">
-        <v>3633</v>
+        <v>256219</v>
       </c>
       <c r="H77" s="1">
-        <v>5755</v>
+        <v>307000</v>
       </c>
       <c r="I77" s="1">
-        <v>-7300</v>
+        <v>307500</v>
       </c>
       <c r="J77" s="1">
-        <v>973</v>
+        <v>300000</v>
       </c>
       <c r="K77" s="1">
-        <v>-76.48999999999999</v>
+        <v>244174</v>
       </c>
       <c r="L77" s="1">
         <v>0</v>
@@ -3854,37 +3821,37 @@
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="C78" s="1">
-        <v>1138000</v>
+        <v>487000</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>401</v>
+        <v>366</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="F78" s="1">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="G78" s="1">
-        <v>7235</v>
+        <v>39359</v>
       </c>
       <c r="H78" s="1">
-        <v>1948</v>
+        <v>484000</v>
       </c>
       <c r="I78" s="1">
-        <v>15493</v>
+        <v>494000</v>
       </c>
       <c r="J78" s="1">
-        <v>17500</v>
+        <v>484000</v>
       </c>
       <c r="K78" s="1">
-        <v>9.630000000000001</v>
+        <v>224074</v>
       </c>
       <c r="L78" s="1">
         <v>0</v>
@@ -3895,37 +3862,37 @@
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="C79" s="1">
-        <v>24800</v>
+        <v>25300</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="F79" s="1">
         <v>1000</v>
       </c>
       <c r="G79" s="1">
-        <v>5027</v>
+        <v>2199577</v>
       </c>
       <c r="H79" s="1">
-        <v>539</v>
+        <v>25400</v>
       </c>
       <c r="I79" s="1">
-        <v>400</v>
+        <v>25700</v>
       </c>
       <c r="J79" s="1">
-        <v>0</v>
+        <v>25050</v>
       </c>
       <c r="K79" s="1">
-        <v>115.43</v>
+        <v>222640</v>
       </c>
       <c r="L79" s="1">
         <v>0</v>
@@ -3934,80 +3901,80 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
-      <c r="A80" s="1">
-        <v>30</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="C80" s="1">
-        <v>473000</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="F80" s="1">
-        <v>500</v>
-      </c>
-      <c r="G80" s="1">
-        <v>26496</v>
-      </c>
-      <c r="H80" s="1">
-        <v>20768</v>
-      </c>
-      <c r="I80" s="1">
-        <v>39880</v>
-      </c>
-      <c r="J80" s="1">
-        <v>19000</v>
-      </c>
-      <c r="K80" s="1">
-        <v>12.4</v>
-      </c>
-      <c r="L80" s="1">
-        <v>0</v>
-      </c>
-      <c r="M80" s="1">
+    <row r="83" spans="1:13">
+      <c r="A83" s="1">
+        <v>31</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C83" s="1">
+        <v>116400</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="F83" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G83" s="1">
+        <v>158395</v>
+      </c>
+      <c r="H83" s="1">
+        <v>117300</v>
+      </c>
+      <c r="I83" s="1">
+        <v>117800</v>
+      </c>
+      <c r="J83" s="1">
+        <v>115300</v>
+      </c>
+      <c r="K83" s="1">
+        <v>196777</v>
+      </c>
+      <c r="L83" s="1">
+        <v>0</v>
+      </c>
+      <c r="M83" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="C84" s="1">
-        <v>177200</v>
+        <v>179200</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="F84" s="1">
         <v>5000</v>
       </c>
       <c r="G84" s="1">
-        <v>4566</v>
+        <v>396109</v>
       </c>
       <c r="H84" s="1">
-        <v>4053</v>
+        <v>182400</v>
       </c>
       <c r="I84" s="1">
-        <v>6346</v>
+        <v>184300</v>
       </c>
       <c r="J84" s="1">
-        <v>200</v>
+        <v>178400</v>
       </c>
       <c r="K84" s="1">
-        <v>117.36</v>
+        <v>195583</v>
       </c>
       <c r="L84" s="1">
         <v>0</v>
@@ -4018,37 +3985,37 @@
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="C85" s="1">
-        <v>25750</v>
+        <v>26100</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>326</v>
+        <v>399</v>
       </c>
       <c r="F85" s="1">
         <v>5000</v>
       </c>
       <c r="G85" s="1">
-        <v>42552</v>
+        <v>970600</v>
       </c>
       <c r="H85" s="1">
-        <v>31715</v>
+        <v>26100</v>
       </c>
       <c r="I85" s="1">
-        <v>3882</v>
+        <v>26500</v>
       </c>
       <c r="J85" s="1">
-        <v>1200</v>
+        <v>26100</v>
       </c>
       <c r="K85" s="1">
-        <v>21.61</v>
+        <v>191594</v>
       </c>
       <c r="L85" s="1">
         <v>0</v>
@@ -4059,37 +4026,37 @@
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="C86" s="1">
-        <v>107500</v>
+        <v>255000</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>326</v>
+        <v>402</v>
       </c>
       <c r="F86" s="1">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="G86" s="1">
-        <v>31889</v>
+        <v>529585</v>
       </c>
       <c r="H86" s="1">
-        <v>23334</v>
+        <v>252500</v>
       </c>
       <c r="I86" s="1">
-        <v>12589</v>
+        <v>259250</v>
       </c>
       <c r="J86" s="1">
-        <v>1350</v>
+        <v>250000</v>
       </c>
       <c r="K86" s="1">
-        <v>8.710000000000001</v>
+        <v>190469</v>
       </c>
       <c r="L86" s="1">
         <v>0</v>
@@ -4100,119 +4067,119 @@
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="C87" s="1">
-        <v>111000</v>
+        <v>108400</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>414</v>
+        <v>340</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="F87" s="1">
+        <v>500</v>
+      </c>
+      <c r="G87" s="1">
+        <v>205294</v>
+      </c>
+      <c r="H87" s="1">
+        <v>109600</v>
+      </c>
+      <c r="I87" s="1">
+        <v>111100</v>
+      </c>
+      <c r="J87" s="1">
+        <v>108400</v>
+      </c>
+      <c r="K87" s="1">
+        <v>189940</v>
+      </c>
+      <c r="L87" s="1">
+        <v>0</v>
+      </c>
+      <c r="M87" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91" s="1">
+        <v>36</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C91" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F91" s="1">
         <v>5000</v>
       </c>
-      <c r="G87" s="1">
-        <v>3155</v>
-      </c>
-      <c r="H87" s="1">
-        <v>-23725</v>
-      </c>
-      <c r="I87" s="1">
-        <v>-21236</v>
-      </c>
-      <c r="J87" s="1">
-        <v>2000</v>
-      </c>
-      <c r="K87" s="1">
-        <v>-83.43000000000001</v>
-      </c>
-      <c r="L87" s="1">
-        <v>0</v>
-      </c>
-      <c r="M87" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13">
-      <c r="A88" s="1">
-        <v>35</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C88" s="1">
-        <v>1940000</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="F88" s="1">
-        <v>5000</v>
-      </c>
-      <c r="G88" s="1">
-        <v>3625</v>
-      </c>
-      <c r="H88" s="1">
-        <v>2229</v>
-      </c>
-      <c r="I88" s="1">
-        <v>46753</v>
-      </c>
-      <c r="J88" s="1">
-        <v>5000</v>
-      </c>
-      <c r="K88" s="1">
-        <v>40.59</v>
-      </c>
-      <c r="L88" s="1">
-        <v>0</v>
-      </c>
-      <c r="M88" s="1">
+      <c r="G91" s="1">
+        <v>38897</v>
+      </c>
+      <c r="H91" s="1">
+        <v>1998000</v>
+      </c>
+      <c r="I91" s="1">
+        <v>2051000</v>
+      </c>
+      <c r="J91" s="1">
+        <v>1995000</v>
+      </c>
+      <c r="K91" s="1">
+        <v>186491</v>
+      </c>
+      <c r="L91" s="1">
+        <v>0</v>
+      </c>
+      <c r="M91" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:13">
       <c r="A92" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="C92" s="1">
-        <v>249000</v>
+        <v>254000</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="F92" s="1">
         <v>200</v>
       </c>
       <c r="G92" s="1">
-        <v>23553</v>
+        <v>160171</v>
       </c>
       <c r="H92" s="1">
-        <v>5288</v>
+        <v>253000</v>
       </c>
       <c r="I92" s="1">
-        <v>23333</v>
+        <v>259000</v>
       </c>
       <c r="J92" s="1">
-        <v>7000</v>
+        <v>250500</v>
       </c>
       <c r="K92" s="1">
-        <v>-50.46</v>
+        <v>184157</v>
       </c>
       <c r="L92" s="1">
         <v>0</v>
@@ -4223,37 +4190,37 @@
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="C93" s="1">
-        <v>241500</v>
+        <v>207000</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="F93" s="1">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="G93" s="1">
-        <v>7350</v>
+        <v>214349</v>
       </c>
       <c r="H93" s="1">
-        <v>7032</v>
+        <v>206500</v>
       </c>
       <c r="I93" s="1">
-        <v>8913</v>
+        <v>209000</v>
       </c>
       <c r="J93" s="1">
-        <v>1800</v>
+        <v>202000</v>
       </c>
       <c r="K93" s="1">
-        <v>11.27</v>
+        <v>184119</v>
       </c>
       <c r="L93" s="1">
         <v>0</v>
@@ -4264,37 +4231,37 @@
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="C94" s="1">
-        <v>18710</v>
+        <v>19000</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="F94" s="1">
         <v>5000</v>
       </c>
       <c r="G94" s="1">
-        <v>35128</v>
+        <v>804634</v>
       </c>
       <c r="H94" s="1">
-        <v>37821</v>
+        <v>19010</v>
       </c>
       <c r="I94" s="1">
-        <v>2572</v>
+        <v>19090</v>
       </c>
       <c r="J94" s="1">
-        <v>600</v>
+        <v>18950</v>
       </c>
       <c r="K94" s="1">
-        <v>500.72</v>
+        <v>179215</v>
       </c>
       <c r="L94" s="1">
         <v>0</v>
@@ -4305,37 +4272,37 @@
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="C95" s="1">
-        <v>187100</v>
+        <v>144000</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="F95" s="1">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="G95" s="1">
-        <v>7</v>
+        <v>138853</v>
       </c>
       <c r="H95" s="1">
-        <v>-2313</v>
+        <v>141400</v>
       </c>
       <c r="I95" s="1">
-        <v>-2583</v>
+        <v>144000</v>
       </c>
       <c r="J95" s="1">
-        <v>0</v>
+        <v>141400</v>
       </c>
       <c r="K95" s="1">
-        <v>-97.98999999999999</v>
+        <v>169886</v>
       </c>
       <c r="L95" s="1">
         <v>0</v>
@@ -4344,80 +4311,80 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
-      <c r="A96" s="1">
-        <v>40</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="C96" s="1">
-        <v>140200</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="F96" s="1">
+    <row r="99" spans="1:13">
+      <c r="A99" s="1">
+        <v>41</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C99" s="1">
+        <v>20300</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F99" s="1">
         <v>5000</v>
       </c>
-      <c r="G96" s="1">
-        <v>11888</v>
-      </c>
-      <c r="H96" s="1">
-        <v>11650</v>
-      </c>
-      <c r="I96" s="1">
-        <v>9254</v>
-      </c>
-      <c r="J96" s="1">
-        <v>5400</v>
-      </c>
-      <c r="K96" s="1">
-        <v>1.84</v>
-      </c>
-      <c r="L96" s="1">
-        <v>0</v>
-      </c>
-      <c r="M96" s="1">
+      <c r="G99" s="1">
+        <v>499636</v>
+      </c>
+      <c r="H99" s="1">
+        <v>20350</v>
+      </c>
+      <c r="I99" s="1">
+        <v>20600</v>
+      </c>
+      <c r="J99" s="1">
+        <v>20300</v>
+      </c>
+      <c r="K99" s="1">
+        <v>161877</v>
+      </c>
+      <c r="L99" s="1">
+        <v>0</v>
+      </c>
+      <c r="M99" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:13">
       <c r="A100" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="C100" s="1">
-        <v>20150</v>
+        <v>201500</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="F100" s="1">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="G100" s="1">
-        <v>35941</v>
+        <v>73071</v>
       </c>
       <c r="H100" s="1">
-        <v>26543</v>
+        <v>204500</v>
       </c>
       <c r="I100" s="1">
-        <v>3389</v>
+        <v>205500</v>
       </c>
       <c r="J100" s="1">
-        <v>1065</v>
+        <v>200000</v>
       </c>
       <c r="K100" s="1">
-        <v>4.71</v>
+        <v>159171</v>
       </c>
       <c r="L100" s="1">
         <v>0</v>
@@ -4428,37 +4395,37 @@
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="C101" s="1">
-        <v>202500</v>
+        <v>890000</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="F101" s="1">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="G101" s="1">
-        <v>29832</v>
+        <v>127981</v>
       </c>
       <c r="H101" s="1">
-        <v>19302</v>
+        <v>883000</v>
       </c>
       <c r="I101" s="1">
-        <v>9086</v>
+        <v>912000</v>
       </c>
       <c r="J101" s="1">
-        <v>3600</v>
+        <v>874000</v>
       </c>
       <c r="K101" s="1">
-        <v>46.84</v>
+        <v>147062</v>
       </c>
       <c r="L101" s="1">
         <v>0</v>
@@ -4469,37 +4436,37 @@
     </row>
     <row r="102" spans="1:13">
       <c r="A102" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="C102" s="1">
-        <v>85200</v>
+        <v>467000</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>367</v>
+        <v>429</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="F102" s="1">
         <v>5000</v>
       </c>
       <c r="G102" s="1">
-        <v>34197</v>
+        <v>197775</v>
       </c>
       <c r="H102" s="1">
-        <v>5914</v>
+        <v>457000</v>
       </c>
       <c r="I102" s="1">
-        <v>5943</v>
+        <v>479500</v>
       </c>
       <c r="J102" s="1">
-        <v>1000</v>
+        <v>457000</v>
       </c>
       <c r="K102" s="1">
-        <v>-6.4</v>
+        <v>140100</v>
       </c>
       <c r="L102" s="1">
         <v>0</v>
@@ -4510,37 +4477,37 @@
     </row>
     <row r="103" spans="1:13">
       <c r="A103" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="C103" s="1">
-        <v>830000</v>
+        <v>85400</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="F103" s="1">
         <v>5000</v>
       </c>
       <c r="G103" s="1">
-        <v>10038</v>
+        <v>548757</v>
       </c>
       <c r="H103" s="1">
-        <v>3022</v>
+        <v>86600</v>
       </c>
       <c r="I103" s="1">
-        <v>2797</v>
+        <v>87100</v>
       </c>
       <c r="J103" s="1">
-        <v>2000</v>
+        <v>85000</v>
       </c>
       <c r="K103" s="1">
-        <v>-30.11</v>
+        <v>139105</v>
       </c>
       <c r="L103" s="1">
         <v>0</v>
@@ -4549,80 +4516,80 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
-      <c r="A104" s="1">
-        <v>45</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="C104" s="1">
-        <v>440000</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="F104" s="1">
-        <v>5000</v>
-      </c>
-      <c r="G104" s="1">
-        <v>3897</v>
-      </c>
-      <c r="H104" s="1">
-        <v>2422</v>
-      </c>
-      <c r="I104" s="1">
-        <v>8866</v>
-      </c>
-      <c r="J104" s="1">
-        <v>2900</v>
-      </c>
-      <c r="K104" s="1">
-        <v>19.96</v>
-      </c>
-      <c r="L104" s="1">
-        <v>0</v>
-      </c>
-      <c r="M104" s="1">
+    <row r="107" spans="1:13">
+      <c r="A107" s="1">
+        <v>46</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C107" s="1">
+        <v>169300</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F107" s="1">
+        <v>500</v>
+      </c>
+      <c r="G107" s="1">
+        <v>128923</v>
+      </c>
+      <c r="H107" s="1">
+        <v>170000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>171400</v>
+      </c>
+      <c r="J107" s="1">
+        <v>168300</v>
+      </c>
+      <c r="K107" s="1">
+        <v>131001</v>
+      </c>
+      <c r="L107" s="1">
+        <v>0</v>
+      </c>
+      <c r="M107" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:13">
       <c r="A108" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="C108" s="1">
-        <v>167800</v>
+        <v>50400</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>343</v>
+        <v>436</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="F108" s="1">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="G108" s="1">
-        <v>9111</v>
+        <v>118190</v>
       </c>
       <c r="H108" s="1">
-        <v>7895</v>
+        <v>50200</v>
       </c>
       <c r="I108" s="1">
-        <v>9913</v>
+        <v>50500</v>
       </c>
       <c r="J108" s="1">
-        <v>2900</v>
+        <v>50200</v>
       </c>
       <c r="K108" s="1">
-        <v>12.73</v>
+        <v>127019</v>
       </c>
       <c r="L108" s="1">
         <v>0</v>
@@ -4633,37 +4600,37 @@
     </row>
     <row r="109" spans="1:13">
       <c r="A109" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="C109" s="1">
-        <v>49850</v>
+        <v>297500</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>404</v>
+        <v>439</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="F109" s="1">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="G109" s="1">
-        <v>8095</v>
+        <v>260847</v>
       </c>
       <c r="H109" s="1">
-        <v>4171</v>
+        <v>286000</v>
       </c>
       <c r="I109" s="1">
-        <v>3824</v>
+        <v>299000</v>
       </c>
       <c r="J109" s="1">
-        <v>2000</v>
+        <v>284500</v>
       </c>
       <c r="K109" s="1">
-        <v>-50.93</v>
+        <v>126616</v>
       </c>
       <c r="L109" s="1">
         <v>0</v>
@@ -4674,37 +4641,37 @@
     </row>
     <row r="110" spans="1:13">
       <c r="A110" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="C110" s="1">
-        <v>78400</v>
+        <v>22200</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>450</v>
+        <v>321</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="F110" s="1">
         <v>5000</v>
       </c>
       <c r="G110" s="1">
-        <v>9668</v>
+        <v>2269246</v>
       </c>
       <c r="H110" s="1">
-        <v>7905</v>
+        <v>22500</v>
       </c>
       <c r="I110" s="1">
-        <v>4426</v>
+        <v>22600</v>
       </c>
       <c r="J110" s="1">
-        <v>3100</v>
+        <v>22000</v>
       </c>
       <c r="K110" s="1">
-        <v>-39.16</v>
+        <v>126610</v>
       </c>
       <c r="L110" s="1">
         <v>0</v>
@@ -4715,83 +4682,42 @@
     </row>
     <row r="111" spans="1:13">
       <c r="A111" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="C111" s="1">
-        <v>255000</v>
+        <v>164700</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>337</v>
+        <v>444</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>338</v>
+        <v>407</v>
       </c>
       <c r="F111" s="1">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G111" s="1">
-        <v>11825</v>
+        <v>98759</v>
       </c>
       <c r="H111" s="1">
-        <v>13026</v>
+        <v>161600</v>
       </c>
       <c r="I111" s="1">
-        <v>26126</v>
+        <v>165600</v>
       </c>
       <c r="J111" s="1">
-        <v>0</v>
+        <v>161600</v>
       </c>
       <c r="K111" s="1">
-        <v>53.96</v>
+        <v>123525</v>
       </c>
       <c r="L111" s="1">
         <v>0</v>
       </c>
       <c r="M111" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13">
-      <c r="A112" s="1">
-        <v>50</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="C112" s="1">
-        <v>160000</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="F112" s="1">
-        <v>500</v>
-      </c>
-      <c r="G112" s="1">
-        <v>17529</v>
-      </c>
-      <c r="H112" s="1">
-        <v>10995</v>
-      </c>
-      <c r="I112" s="1">
-        <v>18528</v>
-      </c>
-      <c r="J112" s="1">
-        <v>3700</v>
-      </c>
-      <c r="K112" s="1">
-        <v>12.8</v>
-      </c>
-      <c r="L112" s="1">
-        <v>0</v>
-      </c>
-      <c r="M112" s="1">
         <v>0</v>
       </c>
     </row>
